--- a/Jogos_do_Dia/2024-02-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="K2" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L2" t="n">
-        <v>2.85</v>
+        <v>2.74</v>
       </c>
       <c r="M2" t="n">
         <v>1.4</v>
@@ -718,10 +718,10 @@
         <v>3.44</v>
       </c>
       <c r="S2" t="n">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
         <v>1.73</v>
@@ -830,13 +830,13 @@
         <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="L3" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.45</v>
@@ -857,10 +857,10 @@
         <v>2.95</v>
       </c>
       <c r="S3" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="T3" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="U3" t="n">
         <v>1.9</v>
@@ -969,13 +969,13 @@
         <v>4.33</v>
       </c>
       <c r="J4" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="L4" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="M4" t="n">
         <v>1.29</v>
@@ -996,10 +996,10 @@
         <v>5.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>2.42</v>
       </c>
       <c r="U4" t="n">
         <v>1.62</v>
@@ -1247,13 +1247,13 @@
         <v>2.38</v>
       </c>
       <c r="J6" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="M6" t="n">
         <v>1.44</v>
@@ -1274,10 +1274,10 @@
         <v>2.95</v>
       </c>
       <c r="S6" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T6" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U6" t="n">
         <v>2.05</v>
@@ -1386,13 +1386,13 @@
         <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="L7" t="n">
-        <v>6.1</v>
+        <v>5.88</v>
       </c>
       <c r="M7" t="n">
         <v>1.33</v>
@@ -1413,10 +1413,10 @@
         <v>3.78</v>
       </c>
       <c r="S7" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="T7" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="U7" t="n">
         <v>1.91</v>
@@ -1528,10 +1528,10 @@
         <v>1.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M8" t="n">
         <v>1.4</v>
@@ -1552,10 +1552,10 @@
         <v>3.25</v>
       </c>
       <c r="S8" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="T8" t="n">
-        <v>1.76</v>
+        <v>1.59</v>
       </c>
       <c r="U8" t="n">
         <v>1.91</v>
@@ -1664,13 +1664,13 @@
         <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
       <c r="K9" t="n">
-        <v>3.25</v>
+        <v>3.33</v>
       </c>
       <c r="L9" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="M9" t="n">
         <v>1.44</v>
@@ -1691,10 +1691,10 @@
         <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="T9" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="U9" t="n">
         <v>1.95</v>
@@ -1803,13 +1803,13 @@
         <v>3.6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="M10" t="n">
         <v>1.4</v>
@@ -1830,10 +1830,10 @@
         <v>3.25</v>
       </c>
       <c r="S10" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="T10" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="n">
         <v>1.73</v>
@@ -1908,7 +1908,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Germany 2. Bundesliga</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1920,128 +1920,128 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>RWDM</t>
+          <t>Osnabrück</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Royal Antwerp FC</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.32</v>
+        <v>2.88</v>
       </c>
       <c r="H11" t="n">
-        <v>2.52</v>
+        <v>2.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.14</v>
+        <v>3.6</v>
       </c>
       <c r="J11" t="n">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>3.59</v>
       </c>
       <c r="L11" t="n">
-        <v>1.52</v>
+        <v>3.26</v>
       </c>
       <c r="M11" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="N11" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P11" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="R11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
-        <v>1.63</v>
+        <v>1.86</v>
       </c>
       <c r="T11" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>2.35</v>
+        <v>1.3</v>
       </c>
       <c r="X11" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.18</v>
+        <v>1.59</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.17</v>
+        <v>0.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.08</v>
+        <v>0.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="AE11" t="n">
-        <v>3.4</v>
+        <v>1.74</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="AH11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>1.22</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AK11" t="n">
         <v>3.65</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>2.58</v>
-      </c>
       <c r="AL11" t="n">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.97</v>
+        <v>2.69</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.25</v>
+        <v>1.72</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.98</v>
+        <v>2.12</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.32</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="12">
@@ -2063,43 +2063,43 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Greuther Fürth</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Hertha BSC</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
         <v>2.38</v>
       </c>
       <c r="I12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N12" t="n">
         <v>3.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.03</v>
       </c>
       <c r="P12" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="Q12" t="n">
         <v>1.18</v>
@@ -2108,85 +2108,85 @@
         <v>4.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="T12" t="n">
-        <v>2.45</v>
+        <v>2.07</v>
       </c>
       <c r="U12" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V12" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC12" t="n">
         <v>1.39</v>
       </c>
-      <c r="X12" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1.35</v>
-      </c>
       <c r="AD12" t="n">
-        <v>3.15</v>
+        <v>3.04</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.86</v>
+        <v>1.37</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.300000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.27</v>
+        <v>3.86</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AI12" t="n">
-        <v>4.55</v>
+        <v>4.1</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.08</v>
+        <v>2.79</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.29</v>
+        <v>2.12</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.49</v>
+        <v>2.72</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Germany 2. Bundesliga</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2198,128 +2198,128 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Osnabrück</t>
+          <t>RWDM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Royal Antwerp FC</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.88</v>
+        <v>5.32</v>
       </c>
       <c r="H13" t="n">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>2.14</v>
       </c>
       <c r="J13" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V13" t="n">
         <v>2.17</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="W13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH13" t="n">
         <v>1.22</v>
       </c>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AI13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>1.44</v>
       </c>
-      <c r="AC13" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AD13" t="n">
+      <c r="AK13" t="n">
         <v>2.58</v>
       </c>
-      <c r="AE13" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>3.65</v>
-      </c>
       <c r="AL13" t="n">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="AM13" t="n">
-        <v>2.69</v>
+        <v>1.97</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.72</v>
+        <v>2.25</v>
       </c>
       <c r="AO13" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.12</v>
+        <v>2.98</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.64</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="14">
@@ -2341,43 +2341,43 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Greuther Fürth</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Hertha BSC</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="H14" t="n">
         <v>2.38</v>
       </c>
       <c r="I14" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.94</v>
+        <v>2.24</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>3.45</v>
+        <v>2.94</v>
       </c>
       <c r="M14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="N14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.03</v>
       </c>
       <c r="P14" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="Q14" t="n">
         <v>1.18</v>
@@ -2386,85 +2386,85 @@
         <v>4.5</v>
       </c>
       <c r="S14" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="T14" t="n">
-        <v>2.38</v>
+        <v>2.13</v>
       </c>
       <c r="U14" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="V14" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W14" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>1.3</v>
       </c>
-      <c r="X14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1.36</v>
-      </c>
       <c r="AK14" t="n">
-        <v>2.79</v>
+        <v>3.08</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="AM14" t="n">
-        <v>2.12</v>
+        <v>2.29</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.72</v>
+        <v>2.49</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -2476,134 +2476,134 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Getafe CF</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Celta de Vigo</t>
+          <t>Ankaragücü</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H15" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="I15" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="K15" t="n">
-        <v>3.15</v>
+        <v>2.99</v>
       </c>
       <c r="L15" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="N15" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="O15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P15" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AC15" t="n">
         <v>1.11</v>
       </c>
-      <c r="P15" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AD15" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG15" t="n">
         <v>1.91</v>
       </c>
-      <c r="AA15" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG15" t="n">
+      <c r="AH15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI15" t="n">
         <v>2.45</v>
       </c>
-      <c r="AH15" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>2.5</v>
-      </c>
       <c r="AJ15" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AL15" t="n">
-        <v>2.23</v>
+        <v>2.6</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.95</v>
+        <v>3.65</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AP15" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2615,134 +2615,134 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Villarreal II</t>
+          <t>İstanbulspor</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CD Tenerife</t>
+          <t>Gazişehir Gaziantep</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.85</v>
+        <v>2.78</v>
       </c>
       <c r="K16" t="n">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="L16" t="n">
-        <v>2.65</v>
+        <v>2.54</v>
       </c>
       <c r="M16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P16" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.57</v>
       </c>
-      <c r="N16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P16" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R16" t="n">
+      <c r="X16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD16" t="n">
         <v>2.45</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>2.74</v>
       </c>
       <c r="AE16" t="n">
         <v>2.1</v>
       </c>
       <c r="AF16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AI16" t="n">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
       <c r="AJ16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AL16" t="n">
         <v>1.61</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AM16" t="n">
         <v>2.23</v>
       </c>
-      <c r="AL16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1.72</v>
-      </c>
       <c r="AN16" t="n">
-        <v>2.75</v>
+        <v>2.02</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="AP16" t="n">
-        <v>3.85</v>
+        <v>2.7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2754,134 +2754,134 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>İstanbulspor</t>
+          <t>Villarreal II</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gazişehir Gaziantep</t>
+          <t>CD Tenerife</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I17" t="n">
         <v>3.4</v>
       </c>
-      <c r="H17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J17" t="n">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="K17" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="L17" t="n">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="M17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P17" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y17" t="n">
         <v>1.4</v>
       </c>
-      <c r="N17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P17" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1.47</v>
-      </c>
       <c r="Z17" t="n">
-        <v>0.75</v>
+        <v>1.58</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.45</v>
+        <v>2.74</v>
       </c>
       <c r="AE17" t="n">
         <v>2.1</v>
       </c>
       <c r="AF17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AH17" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AI17" t="n">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.34</v>
+        <v>1.61</v>
       </c>
       <c r="AK17" t="n">
-        <v>3.1</v>
+        <v>2.23</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.61</v>
+        <v>2.05</v>
       </c>
       <c r="AM17" t="n">
-        <v>2.23</v>
+        <v>1.72</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.02</v>
+        <v>2.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.7</v>
+        <v>3.85</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2893,128 +2893,128 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Getafe CF</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ankaragücü</t>
+          <t>Celta de Vigo</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="I18" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="J18" t="n">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="K18" t="n">
-        <v>3.3</v>
+        <v>3.13</v>
       </c>
       <c r="L18" t="n">
-        <v>2.65</v>
+        <v>3.55</v>
       </c>
       <c r="M18" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="N18" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="P18" t="n">
-        <v>8.220000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="R18" t="n">
-        <v>2.96</v>
+        <v>2.56</v>
       </c>
       <c r="S18" t="n">
-        <v>2.25</v>
+        <v>1.97</v>
       </c>
       <c r="T18" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="W18" t="n">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="X18" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="Y18" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AM18" t="n">
         <v>1.55</v>
       </c>
-      <c r="Z18" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1.46</v>
-      </c>
       <c r="AN18" t="n">
-        <v>3.65</v>
+        <v>2.95</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AP18" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="19">
@@ -3054,7 +3054,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="K19" t="n">
         <v>3.5</v>
@@ -3081,10 +3081,10 @@
         <v>2.48</v>
       </c>
       <c r="S19" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="T19" t="n">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="U19" t="n">
         <v>1.53</v>
@@ -3159,7 +3159,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Netherlands Eredivisie</t>
+          <t>Austria Bundesliga</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -3171,134 +3171,134 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Wattens</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Austria Lustenau</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J20" t="n">
-        <v>1.86</v>
+        <v>4.01</v>
       </c>
       <c r="K20" t="n">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="L20" t="n">
-        <v>3.95</v>
+        <v>5.8</v>
       </c>
       <c r="M20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P20" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="R20" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="T20" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V20" t="n">
         <v>2.1</v>
       </c>
-      <c r="U20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AD20" t="n">
         <v>1.95</v>
       </c>
-      <c r="W20" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>2.82</v>
-      </c>
       <c r="AE20" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>3</v>
+        <v>3.16</v>
       </c>
       <c r="AH20" t="n">
         <v>1.22</v>
       </c>
       <c r="AI20" t="n">
-        <v>3.5</v>
+        <v>3.64</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AK20" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="AL20" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AM20" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="AN20" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.75</v>
+        <v>2.98</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Netherlands Eredivisie</t>
+          <t>Austria Bundesliga</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -3310,125 +3310,125 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Rapid Wien</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="H21" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="I21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P21" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V21" t="n">
         <v>2.2</v>
       </c>
-      <c r="J21" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P21" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.5</v>
-      </c>
       <c r="W21" t="n">
-        <v>2.18</v>
+        <v>1.72</v>
       </c>
       <c r="X21" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.78</v>
+        <v>1.31</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="AD21" t="n">
-        <v>3.64</v>
+        <v>3.15</v>
       </c>
       <c r="AE21" t="n">
-        <v>2.65</v>
+        <v>2.44</v>
       </c>
       <c r="AF21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AH21" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AI21" t="n">
-        <v>3.55</v>
+        <v>3.74</v>
       </c>
       <c r="AJ21" t="n">
         <v>1.42</v>
       </c>
       <c r="AK21" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AM21" t="n">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="AN21" t="n">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.34</v>
@@ -3437,7 +3437,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -3449,134 +3449,134 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.67</v>
+        <v>2.38</v>
       </c>
       <c r="H22" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="I22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P22" t="n">
         <v>9.5</v>
       </c>
-      <c r="J22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="L22" t="n">
-        <v>11</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="N22" t="n">
+      <c r="Q22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI22" t="n">
         <v>3.5</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P22" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Z22" t="n">
+      <c r="AJ22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN22" t="n">
         <v>2</v>
       </c>
-      <c r="AA22" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AJ22" t="n">
+      <c r="AO22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>1.35</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>1.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Austria Bundesliga</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -3588,134 +3588,134 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Wattens</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Austria Lustenau</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="H23" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="I23" t="n">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="J23" t="n">
-        <v>1.74</v>
+        <v>4.04</v>
       </c>
       <c r="K23" t="n">
-        <v>3.8</v>
+        <v>4.35</v>
       </c>
       <c r="L23" t="n">
-        <v>4.25</v>
+        <v>1.75</v>
       </c>
       <c r="M23" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="N23" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O23" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P23" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q23" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="X23" t="n">
         <v>1.22</v>
       </c>
-      <c r="R23" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1.2</v>
-      </c>
       <c r="Y23" t="n">
-        <v>2</v>
+        <v>1.23</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.5</v>
+        <v>1.56</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.38</v>
+        <v>1.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.26</v>
+        <v>1.78</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.86</v>
       </c>
       <c r="AD23" t="n">
-        <v>1.95</v>
+        <v>3.64</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.51</v>
+        <v>2.65</v>
       </c>
       <c r="AF23" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>3.16</v>
+        <v>1.65</v>
       </c>
       <c r="AH23" t="n">
         <v>1.22</v>
       </c>
       <c r="AI23" t="n">
-        <v>3.64</v>
+        <v>3.55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AK23" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="AL23" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AM23" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="AN23" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO23" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Austria Bundesliga</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3727,134 +3727,134 @@
         </is>
       </c>
       <c r="D24" t="n">
+        <v>25</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Oss</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="L24" t="n">
+        <v>11</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P24" t="n">
         <v>18</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Wolfsberger AC</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Rapid Wien</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L24" t="n">
+      <c r="Q24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z24" t="n">
         <v>2</v>
       </c>
-      <c r="M24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P24" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W24" t="n">
+      <c r="AA24" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO24" t="n">
         <v>1.72</v>
       </c>
-      <c r="X24" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>1.6</v>
-      </c>
       <c r="AP24" t="n">
-        <v>2.88</v>
+        <v>2.64</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -3870,31 +3870,31 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Hradec Králové</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Jagiellonia Białystok</t>
+          <t>Bohemians 1905</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J25" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="K25" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="L25" t="n">
-        <v>2.6</v>
+        <v>2.89</v>
       </c>
       <c r="M25" t="n">
         <v>1.4</v>
@@ -3903,97 +3903,97 @@
         <v>2.75</v>
       </c>
       <c r="O25" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P25" t="n">
-        <v>9.6</v>
+        <v>8.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="R25" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="S25" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="T25" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U25" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X25" t="n">
         <v>1.3</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.79</v>
+        <v>1.42</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="AD25" t="n">
-        <v>3.21</v>
+        <v>2.66</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="AF25" t="n">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.52</v>
+        <v>2.08</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AI25" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AK25" t="n">
-        <v>2.55</v>
+        <v>3.04</v>
       </c>
       <c r="AL25" t="n">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AM25" t="n">
-        <v>1.98</v>
+        <v>2.23</v>
       </c>
       <c r="AN25" t="n">
-        <v>2.32</v>
+        <v>1.94</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.54</v>
+        <v>1.77</v>
       </c>
       <c r="AP25" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Slovenia PrvaLiga</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -4005,134 +4005,134 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Celje</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mura</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.91</v>
+        <v>5.5</v>
       </c>
       <c r="H26" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I26" t="n">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="J26" t="n">
-        <v>1.39</v>
+        <v>5.45</v>
       </c>
       <c r="K26" t="n">
-        <v>3.93</v>
+        <v>4.28</v>
       </c>
       <c r="L26" t="n">
-        <v>5.8</v>
+        <v>1.59</v>
       </c>
       <c r="M26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="N26" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P26" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Q26" t="n">
         <v>1.22</v>
       </c>
       <c r="R26" t="n">
-        <v>4</v>
+        <v>4.55</v>
       </c>
       <c r="S26" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="T26" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V26" t="n">
         <v>2</v>
       </c>
-      <c r="U26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W26" t="n">
-        <v>1.1</v>
+        <v>2.37</v>
       </c>
       <c r="X26" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.6</v>
+        <v>1.14</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.33</v>
+        <v>1.73</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.44</v>
+        <v>1.82</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="AD26" t="n">
-        <v>3.04</v>
+        <v>2.82</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="AM26" t="n">
-        <v>2.52</v>
+        <v>1.95</v>
       </c>
       <c r="AN26" t="n">
-        <v>1.83</v>
+        <v>2.18</v>
       </c>
       <c r="AO26" t="n">
-        <v>1.96</v>
+        <v>1.57</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -4148,31 +4148,31 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hradec Králové</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bohemians 1905</t>
+          <t>Jagiellonia Białystok</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I27" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.1</v>
+        <v>2.81</v>
       </c>
       <c r="K27" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L27" t="n">
-        <v>3.3</v>
+        <v>2.42</v>
       </c>
       <c r="M27" t="n">
         <v>1.4</v>
@@ -4181,97 +4181,97 @@
         <v>2.75</v>
       </c>
       <c r="O27" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P27" t="n">
-        <v>8.5</v>
+        <v>9.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="R27" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="S27" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="T27" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="U27" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W27" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X27" t="n">
         <v>1.3</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AB27" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AC27" t="n">
         <v>1.42</v>
       </c>
-      <c r="AC27" t="n">
-        <v>1.24</v>
-      </c>
       <c r="AD27" t="n">
-        <v>2.66</v>
+        <v>3.21</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="AG27" t="n">
-        <v>2.08</v>
+        <v>2.52</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AK27" t="n">
-        <v>3.04</v>
+        <v>2.55</v>
       </c>
       <c r="AL27" t="n">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AM27" t="n">
-        <v>2.23</v>
+        <v>1.98</v>
       </c>
       <c r="AN27" t="n">
-        <v>1.94</v>
+        <v>2.32</v>
       </c>
       <c r="AO27" t="n">
-        <v>1.77</v>
+        <v>1.54</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>Croatia Prva HNL</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -4283,128 +4283,128 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>Hajduk Split</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Zlín</t>
+          <t>Slaven Koprivnica</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="H28" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I28" t="n">
+        <v>11</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>11</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z28" t="n">
         <v>2.1</v>
       </c>
-      <c r="I28" t="n">
-        <v>5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L28" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P28" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X28" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AA28" t="n">
-        <v>0.5</v>
+        <v>1.09</v>
       </c>
       <c r="AB28" t="n">
-        <v>1.16</v>
+        <v>1.66</v>
       </c>
       <c r="AC28" t="n">
-        <v>1.03</v>
+        <v>1.23</v>
       </c>
       <c r="AD28" t="n">
-        <v>2.19</v>
+        <v>2.89</v>
       </c>
       <c r="AE28" t="n">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
       <c r="AF28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG28" t="n">
-        <v>2.96</v>
+        <v>4.86</v>
       </c>
       <c r="AH28" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AI28" t="n">
-        <v>4.5</v>
+        <v>3.28</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>2.93</v>
+        <v>2.35</v>
       </c>
       <c r="AL28" t="n">
-        <v>1.58</v>
+        <v>1.88</v>
       </c>
       <c r="AM28" t="n">
-        <v>2.17</v>
+        <v>1.82</v>
       </c>
       <c r="AN28" t="n">
-        <v>1.99</v>
+        <v>2.42</v>
       </c>
       <c r="AO28" t="n">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.57</v>
+        <v>3.28</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="29">
@@ -4444,13 +4444,13 @@
         <v>3.75</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="K29" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L29" t="n">
-        <v>3.75</v>
+        <v>2.81</v>
       </c>
       <c r="M29" t="n">
         <v>1.4</v>
@@ -4471,10 +4471,10 @@
         <v>3.35</v>
       </c>
       <c r="S29" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="T29" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="U29" t="n">
         <v>1.75</v>
@@ -4549,7 +4549,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -4561,134 +4561,134 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Volos NFC</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.5</v>
+        <v>2.88</v>
       </c>
       <c r="H30" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="I30" t="n">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>5.6</v>
+        <v>2.04</v>
       </c>
       <c r="K30" t="n">
-        <v>4.5</v>
+        <v>3.13</v>
       </c>
       <c r="L30" t="n">
-        <v>1.6</v>
+        <v>3.22</v>
       </c>
       <c r="M30" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="N30" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="O30" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P30" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="R30" t="n">
-        <v>4.55</v>
+        <v>3.25</v>
       </c>
       <c r="S30" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="T30" t="n">
-        <v>2.28</v>
+        <v>1.73</v>
       </c>
       <c r="U30" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W30" t="n">
-        <v>2.37</v>
+        <v>1.33</v>
       </c>
       <c r="X30" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.14</v>
+        <v>1.68</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.73</v>
+        <v>0.91</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.82</v>
+        <v>0.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AC30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AH30" t="n">
         <v>1.53</v>
       </c>
-      <c r="AD30" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>1.22</v>
-      </c>
       <c r="AI30" t="n">
-        <v>3.5</v>
+        <v>2.44</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1.43</v>
+        <v>1.92</v>
       </c>
       <c r="AK30" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="AL30" t="n">
-        <v>1.74</v>
+        <v>2.47</v>
       </c>
       <c r="AM30" t="n">
-        <v>1.95</v>
+        <v>1.52</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.18</v>
+        <v>3.42</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -4700,128 +4700,128 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bačka Topola</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I31" t="n">
         <v>4</v>
       </c>
-      <c r="H31" t="n">
+      <c r="J31" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P31" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG31" t="n">
         <v>2.2</v>
       </c>
-      <c r="I31" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P31" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="X31" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AP31" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="32">
@@ -4861,13 +4861,13 @@
         <v>2.75</v>
       </c>
       <c r="J32" t="n">
-        <v>3.7</v>
+        <v>3.68</v>
       </c>
       <c r="K32" t="n">
-        <v>3.3</v>
+        <v>3.39</v>
       </c>
       <c r="L32" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="M32" t="n">
         <v>1.44</v>
@@ -4888,10 +4888,10 @@
         <v>3</v>
       </c>
       <c r="S32" t="n">
-        <v>2.16</v>
+        <v>2.21</v>
       </c>
       <c r="T32" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="U32" t="n">
         <v>1.95</v>
@@ -5000,13 +5000,13 @@
         <v>5.5</v>
       </c>
       <c r="J33" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="K33" t="n">
-        <v>3.7</v>
+        <v>3.63</v>
       </c>
       <c r="L33" t="n">
-        <v>5.75</v>
+        <v>4.76</v>
       </c>
       <c r="M33" t="n">
         <v>1.5</v>
@@ -5027,10 +5027,10 @@
         <v>2.9</v>
       </c>
       <c r="S33" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="T33" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U33" t="n">
         <v>2.1</v>
@@ -5139,13 +5139,13 @@
         <v>4.33</v>
       </c>
       <c r="J34" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="K34" t="n">
-        <v>3.45</v>
+        <v>3.43</v>
       </c>
       <c r="L34" t="n">
-        <v>3.65</v>
+        <v>3.61</v>
       </c>
       <c r="M34" t="n">
         <v>1.44</v>
@@ -5166,10 +5166,10 @@
         <v>3.1</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T34" t="n">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="U34" t="n">
         <v>1.95</v>
@@ -5278,13 +5278,13 @@
         <v>3.2</v>
       </c>
       <c r="J35" t="n">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="K35" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="L35" t="n">
-        <v>2.63</v>
+        <v>2.85</v>
       </c>
       <c r="M35" t="n">
         <v>1.4</v>
@@ -5308,7 +5308,7 @@
         <v>2.15</v>
       </c>
       <c r="T35" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="U35" t="n">
         <v>1.8</v>
@@ -5383,7 +5383,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
@@ -5395,122 +5395,122 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Volos NFC</t>
+          <t>Bačka Topola</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="J36" t="n">
-        <v>2.07</v>
+        <v>3.75</v>
       </c>
       <c r="K36" t="n">
-        <v>3.04</v>
+        <v>3.58</v>
       </c>
       <c r="L36" t="n">
-        <v>2.98</v>
+        <v>1.88</v>
       </c>
       <c r="M36" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="N36" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O36" t="n">
         <v>1.05</v>
       </c>
       <c r="P36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="R36" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="S36" t="n">
-        <v>2.04</v>
+        <v>1.75</v>
       </c>
       <c r="T36" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="U36" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V36" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W36" t="n">
-        <v>1.33</v>
+        <v>1.85</v>
       </c>
       <c r="X36" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.68</v>
+        <v>1.22</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.91</v>
+        <v>1.22</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.7</v>
+        <v>2.11</v>
       </c>
       <c r="AB36" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AC36" t="n">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="AD36" t="n">
-        <v>2.25</v>
+        <v>2.77</v>
       </c>
       <c r="AE36" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AK36" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="AM36" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.42</v>
+        <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AP36" t="n">
         <v>0</v>
@@ -5522,7 +5522,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Croatia Prva HNL</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
@@ -5534,128 +5534,128 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Hajduk Split</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Slaven Koprivnica</t>
+          <t>Zlín</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P37" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AO37" t="n">
         <v>1.73</v>
       </c>
-      <c r="H37" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I37" t="n">
-        <v>11</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K37" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L37" t="n">
-        <v>11</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P37" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>1.47</v>
-      </c>
       <c r="AP37" t="n">
-        <v>3.28</v>
+        <v>2.57</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="38">
@@ -5695,13 +5695,13 @@
         <v>2.63</v>
       </c>
       <c r="J38" t="n">
-        <v>3.75</v>
+        <v>3.54</v>
       </c>
       <c r="K38" t="n">
-        <v>3.65</v>
+        <v>3.54</v>
       </c>
       <c r="L38" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="M38" t="n">
         <v>1.4</v>
@@ -5722,10 +5722,10 @@
         <v>3.4</v>
       </c>
       <c r="S38" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="T38" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="U38" t="n">
         <v>1.75</v>
@@ -5800,7 +5800,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>Slovenia PrvaLiga</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
@@ -5812,128 +5812,128 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Celje</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Mura</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="H39" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="J39" t="n">
-        <v>2.2</v>
+        <v>1.48</v>
       </c>
       <c r="K39" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="L39" t="n">
-        <v>3.35</v>
+        <v>5.8</v>
       </c>
       <c r="M39" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="N39" t="n">
-        <v>2.63</v>
+        <v>3.15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P39" t="n">
         <v>10</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="R39" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="S39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T39" t="n">
         <v>2.05</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.77</v>
       </c>
       <c r="U39" t="n">
         <v>1.8</v>
       </c>
       <c r="V39" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W39" t="n">
-        <v>1.35</v>
+        <v>1.1</v>
       </c>
       <c r="X39" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.62</v>
+        <v>2.6</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.89</v>
+        <v>2.33</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.78</v>
+        <v>1.44</v>
       </c>
       <c r="AB39" t="n">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="AC39" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AD39" t="n">
-        <v>2.64</v>
+        <v>3.04</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.89</v>
+        <v>1.28</v>
       </c>
       <c r="AF39" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>2.2</v>
+        <v>4.36</v>
       </c>
       <c r="AH39" t="n">
-        <v>1.34</v>
+        <v>1.15</v>
       </c>
       <c r="AI39" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="AK39" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="AL39" t="n">
-        <v>2.04</v>
+        <v>1.5</v>
       </c>
       <c r="AM39" t="n">
-        <v>1.67</v>
+        <v>2.52</v>
       </c>
       <c r="AN39" t="n">
-        <v>2.65</v>
+        <v>1.83</v>
       </c>
       <c r="AO39" t="n">
-        <v>1.38</v>
+        <v>1.96</v>
       </c>
       <c r="AP39" t="n">
-        <v>3.55</v>
+        <v>2.3</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.21</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="40">
@@ -5973,13 +5973,13 @@
         <v>6.5</v>
       </c>
       <c r="J40" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="K40" t="n">
-        <v>4.7</v>
+        <v>4.69</v>
       </c>
       <c r="L40" t="n">
-        <v>6.75</v>
+        <v>6.81</v>
       </c>
       <c r="M40" t="n">
         <v>1.33</v>
@@ -6000,10 +6000,10 @@
         <v>4.7</v>
       </c>
       <c r="S40" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="T40" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="U40" t="n">
         <v>1.91</v>
@@ -6078,7 +6078,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
@@ -6090,134 +6090,134 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>KV Mechelen</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>KRC Genk</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7.5</v>
+        <v>4.25</v>
       </c>
       <c r="H41" t="n">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="I41" t="n">
-        <v>1.95</v>
+        <v>2.46</v>
       </c>
       <c r="J41" t="n">
-        <v>7.5</v>
+        <v>3.9</v>
       </c>
       <c r="K41" t="n">
-        <v>4.35</v>
+        <v>3.7</v>
       </c>
       <c r="L41" t="n">
-        <v>1.38</v>
+        <v>1.74</v>
       </c>
       <c r="M41" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="N41" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="O41" t="n">
         <v>1.04</v>
       </c>
       <c r="P41" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Q41" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y41" t="n">
         <v>1.28</v>
       </c>
-      <c r="R41" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W41" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="X41" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>1.07</v>
-      </c>
       <c r="Z41" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>1.31</v>
+        <v>1.71</v>
       </c>
       <c r="AC41" t="n">
-        <v>1.53</v>
+        <v>1.74</v>
       </c>
       <c r="AD41" t="n">
-        <v>2.84</v>
+        <v>3.45</v>
       </c>
       <c r="AE41" t="n">
-        <v>4.05</v>
+        <v>2.39</v>
       </c>
       <c r="AF41" t="n">
         <v>9.4</v>
       </c>
       <c r="AG41" t="n">
-        <v>1.35</v>
+        <v>1.76</v>
       </c>
       <c r="AH41" t="n">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="AI41" t="n">
-        <v>2.72</v>
+        <v>4.5</v>
       </c>
       <c r="AJ41" t="n">
-        <v>2</v>
+        <v>1.31</v>
       </c>
       <c r="AK41" t="n">
-        <v>1.8</v>
+        <v>3.04</v>
       </c>
       <c r="AL41" t="n">
-        <v>2.21</v>
+        <v>1.56</v>
       </c>
       <c r="AM41" t="n">
-        <v>1.59</v>
+        <v>2.27</v>
       </c>
       <c r="AN41" t="n">
-        <v>2.98</v>
+        <v>1.96</v>
       </c>
       <c r="AO41" t="n">
-        <v>1.32</v>
+        <v>1.79</v>
       </c>
       <c r="AP41" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -6229,128 +6229,128 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KV Mechelen</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>KRC Genk</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.25</v>
+        <v>7.5</v>
       </c>
       <c r="H42" t="n">
-        <v>2.19</v>
+        <v>2.3</v>
       </c>
       <c r="I42" t="n">
-        <v>2.46</v>
+        <v>1.95</v>
       </c>
       <c r="J42" t="n">
-        <v>3.9</v>
+        <v>7.2</v>
       </c>
       <c r="K42" t="n">
-        <v>3.8</v>
+        <v>4.55</v>
       </c>
       <c r="L42" t="n">
-        <v>1.85</v>
+        <v>1.37</v>
       </c>
       <c r="M42" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="N42" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O42" t="n">
         <v>1.04</v>
       </c>
       <c r="P42" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="R42" t="n">
-        <v>4.17</v>
+        <v>3.6</v>
       </c>
       <c r="S42" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="T42" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="U42" t="n">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="V42" t="n">
-        <v>2.18</v>
+        <v>1.67</v>
       </c>
       <c r="W42" t="n">
-        <v>1.86</v>
+        <v>2.95</v>
       </c>
       <c r="X42" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.28</v>
+        <v>1.07</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AA42" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AB42" t="n">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
       <c r="AC42" t="n">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="AD42" t="n">
-        <v>3.45</v>
+        <v>2.84</v>
       </c>
       <c r="AE42" t="n">
-        <v>2.39</v>
+        <v>4.05</v>
       </c>
       <c r="AF42" t="n">
         <v>9.4</v>
       </c>
       <c r="AG42" t="n">
-        <v>1.76</v>
+        <v>1.35</v>
       </c>
       <c r="AH42" t="n">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="AI42" t="n">
-        <v>4.5</v>
+        <v>2.72</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1.31</v>
+        <v>2</v>
       </c>
       <c r="AK42" t="n">
-        <v>3.04</v>
+        <v>1.8</v>
       </c>
       <c r="AL42" t="n">
-        <v>1.56</v>
+        <v>2.21</v>
       </c>
       <c r="AM42" t="n">
-        <v>2.27</v>
+        <v>1.59</v>
       </c>
       <c r="AN42" t="n">
-        <v>1.96</v>
+        <v>2.98</v>
       </c>
       <c r="AO42" t="n">
-        <v>1.79</v>
+        <v>1.32</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.49</v>
+        <v>4.33</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="43">
@@ -6390,13 +6390,13 @@
         <v>4.33</v>
       </c>
       <c r="J43" t="n">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="K43" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L43" t="n">
-        <v>3.55</v>
+        <v>3.41</v>
       </c>
       <c r="M43" t="n">
         <v>1.62</v>
@@ -6417,10 +6417,10 @@
         <v>2.37</v>
       </c>
       <c r="S43" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="T43" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U43" t="n">
         <v>2.2</v>
@@ -6529,13 +6529,13 @@
         <v>3.75</v>
       </c>
       <c r="J44" t="n">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M44" t="n">
         <v>1.53</v>
@@ -6556,10 +6556,10 @@
         <v>2.6</v>
       </c>
       <c r="S44" t="n">
-        <v>2.43</v>
+        <v>2.31</v>
       </c>
       <c r="T44" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="U44" t="n">
         <v>2.1</v>
@@ -6668,13 +6668,13 @@
         <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>2.28</v>
+        <v>2.49</v>
       </c>
       <c r="K45" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="L45" t="n">
-        <v>3.35</v>
+        <v>2.87</v>
       </c>
       <c r="M45" t="n">
         <v>1.53</v>
@@ -6695,10 +6695,10 @@
         <v>2.65</v>
       </c>
       <c r="S45" t="n">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="T45" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="U45" t="n">
         <v>2</v>
@@ -6807,13 +6807,13 @@
         <v>3.5</v>
       </c>
       <c r="J46" t="n">
-        <v>2.3</v>
+        <v>2.47</v>
       </c>
       <c r="K46" t="n">
-        <v>3.5</v>
+        <v>3.27</v>
       </c>
       <c r="L46" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="M46" t="n">
         <v>1.4</v>
@@ -6834,10 +6834,10 @@
         <v>3.3</v>
       </c>
       <c r="S46" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="T46" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="U46" t="n">
         <v>1.75</v>
@@ -6946,13 +6946,13 @@
         <v>2.6</v>
       </c>
       <c r="J47" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K47" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L47" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="M47" t="n">
         <v>1.44</v>
@@ -6973,10 +6973,10 @@
         <v>3</v>
       </c>
       <c r="S47" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T47" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U47" t="n">
         <v>1.85</v>
@@ -7051,7 +7051,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Portugal Liga NOS</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
@@ -7063,128 +7063,128 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Rio Ave FC</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="J48" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L48" t="n">
         <v>2.2</v>
       </c>
-      <c r="K48" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.2</v>
-      </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="S48" t="n">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="T48" t="n">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y48" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AA48" t="n">
-        <v>1.4</v>
+        <v>0.82</v>
       </c>
       <c r="AB48" t="n">
-        <v>1.14</v>
+        <v>1.52</v>
       </c>
       <c r="AC48" t="n">
-        <v>1.07</v>
+        <v>1.74</v>
       </c>
       <c r="AD48" t="n">
-        <v>2.21</v>
+        <v>3.26</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG48" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI48" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AK48" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AL48" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AM48" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AN48" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AO48" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AP48" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="49">
@@ -7224,13 +7224,13 @@
         <v>3.7</v>
       </c>
       <c r="J49" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="K49" t="n">
         <v>3.4</v>
       </c>
       <c r="L49" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="M49" t="n">
         <v>1.36</v>
@@ -7251,10 +7251,10 @@
         <v>3.4</v>
       </c>
       <c r="S49" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T49" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="U49" t="n">
         <v>1.73</v>
@@ -7363,13 +7363,13 @@
         <v>2.2</v>
       </c>
       <c r="J50" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="K50" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L50" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="M50" t="n">
         <v>1.3</v>
@@ -7390,10 +7390,10 @@
         <v>4.33</v>
       </c>
       <c r="S50" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="T50" t="n">
-        <v>2.23</v>
+        <v>2.4</v>
       </c>
       <c r="U50" t="n">
         <v>1.62</v>
@@ -7468,7 +7468,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>Portugal Liga NOS</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
@@ -7480,128 +7480,128 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Rio Ave FC</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="K51" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L51" t="n">
-        <v>2.38</v>
+        <v>3.3</v>
       </c>
       <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
         <v>1.3</v>
       </c>
-      <c r="N51" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P51" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R51" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="T51" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V51" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W51" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X51" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>1.27</v>
-      </c>
       <c r="AA51" t="n">
-        <v>0.82</v>
+        <v>1.4</v>
       </c>
       <c r="AB51" t="n">
-        <v>1.52</v>
+        <v>1.14</v>
       </c>
       <c r="AC51" t="n">
-        <v>1.74</v>
+        <v>1.07</v>
       </c>
       <c r="AD51" t="n">
-        <v>3.26</v>
+        <v>2.21</v>
       </c>
       <c r="AE51" t="n">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="AF51" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG51" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AH51" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AI51" t="n">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AK51" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AL51" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AM51" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AN51" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AO51" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -7641,13 +7641,13 @@
         <v>1.36</v>
       </c>
       <c r="J52" t="n">
-        <v>31</v>
+        <v>20.1</v>
       </c>
       <c r="K52" t="n">
-        <v>12</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="L52" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="M52" t="n">
         <v>1.17</v>
@@ -7668,10 +7668,10 @@
         <v>7</v>
       </c>
       <c r="S52" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="T52" t="n">
-        <v>3.3</v>
+        <v>3.47</v>
       </c>
       <c r="U52" t="n">
         <v>2.2</v>
@@ -7780,13 +7780,13 @@
         <v>8.5</v>
       </c>
       <c r="J53" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="K53" t="n">
-        <v>5.75</v>
+        <v>5.9</v>
       </c>
       <c r="L53" t="n">
-        <v>11</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="M53" t="n">
         <v>1.22</v>
@@ -7807,10 +7807,10 @@
         <v>6.6</v>
       </c>
       <c r="S53" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T53" t="n">
-        <v>2.75</v>
+        <v>2.58</v>
       </c>
       <c r="U53" t="n">
         <v>1.83</v>
@@ -7919,13 +7919,13 @@
         <v>6</v>
       </c>
       <c r="J54" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="K54" t="n">
-        <v>4.2</v>
+        <v>3.04</v>
       </c>
       <c r="L54" t="n">
-        <v>5.25</v>
+        <v>10.32</v>
       </c>
       <c r="M54" t="n">
         <v>1.33</v>
@@ -7946,10 +7946,10 @@
         <v>3.88</v>
       </c>
       <c r="S54" t="n">
-        <v>1.71</v>
+        <v>1.56</v>
       </c>
       <c r="T54" t="n">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="U54" t="n">
         <v>1.91</v>
@@ -8058,13 +8058,13 @@
         <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>2.6</v>
+        <v>3.11</v>
       </c>
       <c r="K55" t="n">
-        <v>3.3</v>
+        <v>3.37</v>
       </c>
       <c r="L55" t="n">
-        <v>2.7</v>
+        <v>2.28</v>
       </c>
       <c r="M55" t="n">
         <v>1.4</v>
@@ -8085,10 +8085,10 @@
         <v>3.3</v>
       </c>
       <c r="S55" t="n">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="T55" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="U55" t="n">
         <v>1.75</v>
@@ -8336,13 +8336,13 @@
         <v>3.8</v>
       </c>
       <c r="J57" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="K57" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="L57" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="M57" t="n">
         <v>1.55</v>
@@ -8363,10 +8363,10 @@
         <v>2.45</v>
       </c>
       <c r="S57" t="n">
-        <v>2.48</v>
+        <v>2.31</v>
       </c>
       <c r="T57" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="U57" t="n">
         <v>2.05</v>
@@ -8475,13 +8475,13 @@
         <v>6</v>
       </c>
       <c r="J58" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="K58" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L58" t="n">
-        <v>5.8</v>
+        <v>6.25</v>
       </c>
       <c r="M58" t="n">
         <v>1.33</v>
@@ -8502,10 +8502,10 @@
         <v>4</v>
       </c>
       <c r="S58" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="T58" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="U58" t="n">
         <v>1.91</v>
@@ -8547,10 +8547,10 @@
         <v>5.25</v>
       </c>
       <c r="AH58" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AI58" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ58" t="n">
         <v>1.52</v>
@@ -8614,13 +8614,13 @@
         <v>3.4</v>
       </c>
       <c r="J59" t="n">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="K59" t="n">
-        <v>4</v>
+        <v>3.77</v>
       </c>
       <c r="L59" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="M59" t="n">
         <v>1.29</v>
@@ -8641,10 +8641,10 @@
         <v>5.2</v>
       </c>
       <c r="S59" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="T59" t="n">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="U59" t="n">
         <v>1.5</v>
@@ -8753,13 +8753,13 @@
         <v>6.95</v>
       </c>
       <c r="J60" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="K60" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="L60" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="M60" t="n">
         <v>1.31</v>
@@ -8816,25 +8816,25 @@
         <v>2.96</v>
       </c>
       <c r="AE60" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF60" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG60" t="n">
-        <v>0</v>
+        <v>4.26</v>
       </c>
       <c r="AH60" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI60" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AJ60" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AK60" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL60" t="n">
         <v>1.59</v>
@@ -8892,13 +8892,13 @@
         <v>2.63</v>
       </c>
       <c r="J61" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="K61" t="n">
         <v>3.4</v>
       </c>
       <c r="L61" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="M61" t="n">
         <v>1.36</v>
@@ -8919,10 +8919,10 @@
         <v>3.5</v>
       </c>
       <c r="S61" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="T61" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="U61" t="n">
         <v>1.75</v>
@@ -9034,10 +9034,10 @@
         <v>1.81</v>
       </c>
       <c r="K62" t="n">
-        <v>4.1</v>
+        <v>3.96</v>
       </c>
       <c r="L62" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="M62" t="n">
         <v>1.29</v>
@@ -9058,10 +9058,10 @@
         <v>5</v>
       </c>
       <c r="S62" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="T62" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="U62" t="n">
         <v>1.57</v>
@@ -9136,7 +9136,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
@@ -9148,134 +9148,134 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Slavia Praha</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Jablonec</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.62</v>
+        <v>4.33</v>
       </c>
       <c r="H63" t="n">
-        <v>2.88</v>
+        <v>2.05</v>
       </c>
       <c r="I63" t="n">
-        <v>9.5</v>
+        <v>2.75</v>
       </c>
       <c r="J63" t="n">
-        <v>1.22</v>
+        <v>3.5</v>
       </c>
       <c r="K63" t="n">
-        <v>6.25</v>
+        <v>3.3</v>
       </c>
       <c r="L63" t="n">
-        <v>10</v>
+        <v>2.14</v>
       </c>
       <c r="M63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P63" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AQ63" t="n">
         <v>1.25</v>
-      </c>
-      <c r="N63" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P63" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R63" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="S63" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T63" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U63" t="n">
-        <v>2</v>
-      </c>
-      <c r="V63" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W63" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="X63" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>1.46</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
@@ -9287,128 +9287,128 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Slavia Praha</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Jablonec</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.33</v>
+        <v>1.62</v>
       </c>
       <c r="H64" t="n">
-        <v>2.05</v>
+        <v>2.88</v>
       </c>
       <c r="I64" t="n">
-        <v>2.75</v>
+        <v>9.5</v>
       </c>
       <c r="J64" t="n">
-        <v>3.35</v>
+        <v>1.17</v>
       </c>
       <c r="K64" t="n">
-        <v>3.35</v>
+        <v>6.5</v>
       </c>
       <c r="L64" t="n">
-        <v>2.2</v>
+        <v>10.8</v>
       </c>
       <c r="M64" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="N64" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O64" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P64" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AE64" t="n">
         <v>1.06</v>
       </c>
-      <c r="P64" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R64" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S64" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U64" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V64" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W64" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X64" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>2.38</v>
-      </c>
       <c r="AF64" t="n">
-        <v>8</v>
+        <v>16.25</v>
       </c>
       <c r="AG64" t="n">
-        <v>1.8</v>
+        <v>9.6</v>
       </c>
       <c r="AH64" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AI64" t="n">
-        <v>3.18</v>
+        <v>4</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1.57</v>
+        <v>1.31</v>
       </c>
       <c r="AK64" t="n">
-        <v>2.33</v>
+        <v>3.04</v>
       </c>
       <c r="AL64" t="n">
-        <v>1.95</v>
+        <v>1.54</v>
       </c>
       <c r="AM64" t="n">
-        <v>1.84</v>
+        <v>2.25</v>
       </c>
       <c r="AN64" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AP64" t="n">
         <v>2.45</v>
       </c>
-      <c r="AO64" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AP64" t="n">
-        <v>3.42</v>
-      </c>
       <c r="AQ64" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="65">
@@ -9448,13 +9448,13 @@
         <v>3.75</v>
       </c>
       <c r="J65" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K65" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="L65" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="M65" t="n">
         <v>1.5</v>
@@ -9475,10 +9475,10 @@
         <v>2.75</v>
       </c>
       <c r="S65" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T65" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="U65" t="n">
         <v>1.95</v>
@@ -9544,10 +9544,10 @@
         <v>1.26</v>
       </c>
       <c r="AP65" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="66">
@@ -9587,13 +9587,13 @@
         <v>5</v>
       </c>
       <c r="J66" t="n">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="K66" t="n">
         <v>3.45</v>
       </c>
       <c r="L66" t="n">
-        <v>4.35</v>
+        <v>4.75</v>
       </c>
       <c r="M66" t="n">
         <v>1.5</v>
@@ -9614,10 +9614,10 @@
         <v>2.7</v>
       </c>
       <c r="S66" t="n">
-        <v>2.23</v>
+        <v>1.97</v>
       </c>
       <c r="T66" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="U66" t="n">
         <v>2.1</v>
@@ -9726,13 +9726,13 @@
         <v>2.55</v>
       </c>
       <c r="J67" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K67" t="n">
         <v>3.5</v>
       </c>
       <c r="L67" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="M67" t="n">
         <v>1.38</v>
@@ -9753,10 +9753,10 @@
         <v>3.55</v>
       </c>
       <c r="S67" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="T67" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="U67" t="n">
         <v>1.67</v>
@@ -9865,13 +9865,13 @@
         <v>2.75</v>
       </c>
       <c r="J68" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K68" t="n">
         <v>3.5</v>
       </c>
-      <c r="K68" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L68" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="M68" t="n">
         <v>1.36</v>
@@ -9892,10 +9892,10 @@
         <v>3.99</v>
       </c>
       <c r="S68" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="T68" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="U68" t="n">
         <v>1.7</v>
@@ -10004,13 +10004,13 @@
         <v>3.5</v>
       </c>
       <c r="J69" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="K69" t="n">
-        <v>3.35</v>
+        <v>3.66</v>
       </c>
       <c r="L69" t="n">
-        <v>2.75</v>
+        <v>3.22</v>
       </c>
       <c r="M69" t="n">
         <v>1.36</v>
@@ -10031,10 +10031,10 @@
         <v>3.6</v>
       </c>
       <c r="S69" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="T69" t="n">
-        <v>1.94</v>
+        <v>1.72</v>
       </c>
       <c r="U69" t="n">
         <v>1.67</v>
@@ -10100,10 +10100,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="70">
@@ -10146,10 +10146,10 @@
         <v>1.5</v>
       </c>
       <c r="K70" t="n">
-        <v>4.2</v>
+        <v>4.68</v>
       </c>
       <c r="L70" t="n">
-        <v>5.5</v>
+        <v>5.89</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -10170,10 +10170,10 @@
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T70" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="U70" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>3.55</v>
       </c>
       <c r="J71" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="K71" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L71" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="M71" t="n">
         <v>1.33</v>
@@ -10309,10 +10309,10 @@
         <v>4.2</v>
       </c>
       <c r="S71" t="n">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="T71" t="n">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="U71" t="n">
         <v>1.55</v>
@@ -10421,13 +10421,13 @@
         <v>5.25</v>
       </c>
       <c r="J72" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="K72" t="n">
         <v>3.45</v>
       </c>
       <c r="L72" t="n">
-        <v>5.1</v>
+        <v>4.45</v>
       </c>
       <c r="M72" t="n">
         <v>1.38</v>
@@ -10448,10 +10448,10 @@
         <v>3.2</v>
       </c>
       <c r="S72" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="T72" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="U72" t="n">
         <v>1.91</v>
@@ -10560,13 +10560,13 @@
         <v>12</v>
       </c>
       <c r="J73" t="n">
-        <v>1.15</v>
+        <v>1.75</v>
       </c>
       <c r="K73" t="n">
-        <v>7.5</v>
+        <v>2.13</v>
       </c>
       <c r="L73" t="n">
-        <v>19</v>
+        <v>15.25</v>
       </c>
       <c r="M73" t="n">
         <v>1.22</v>
@@ -10587,10 +10587,10 @@
         <v>5.5</v>
       </c>
       <c r="S73" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="T73" t="n">
-        <v>2.75</v>
+        <v>2.39</v>
       </c>
       <c r="U73" t="n">
         <v>2.25</v>
@@ -10702,10 +10702,10 @@
         <v>1.91</v>
       </c>
       <c r="K74" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L74" t="n">
-        <v>3.8</v>
+        <v>3.83</v>
       </c>
       <c r="M74" t="n">
         <v>1.33</v>
@@ -10726,10 +10726,10 @@
         <v>4</v>
       </c>
       <c r="S74" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="T74" t="n">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="U74" t="n">
         <v>1.67</v>
@@ -10838,13 +10838,13 @@
         <v>3.75</v>
       </c>
       <c r="J75" t="n">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="K75" t="n">
-        <v>3.3</v>
+        <v>3.48</v>
       </c>
       <c r="L75" t="n">
-        <v>3</v>
+        <v>3.13</v>
       </c>
       <c r="M75" t="n">
         <v>1.44</v>
@@ -10865,10 +10865,10 @@
         <v>3.3</v>
       </c>
       <c r="S75" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="T75" t="n">
-        <v>1.88</v>
+        <v>1.65</v>
       </c>
       <c r="U75" t="n">
         <v>1.8</v>
@@ -10977,13 +10977,13 @@
         <v>4.5</v>
       </c>
       <c r="J76" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="K76" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="L76" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="M76" t="n">
         <v>1.53</v>
@@ -11004,10 +11004,10 @@
         <v>2.6</v>
       </c>
       <c r="S76" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="T76" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="U76" t="n">
         <v>2.1</v>
@@ -11119,10 +11119,10 @@
         <v>1.23</v>
       </c>
       <c r="K77" t="n">
-        <v>6.75</v>
+        <v>6.78</v>
       </c>
       <c r="L77" t="n">
-        <v>14</v>
+        <v>10.77</v>
       </c>
       <c r="M77" t="n">
         <v>1.2</v>
@@ -11143,10 +11143,10 @@
         <v>6.5</v>
       </c>
       <c r="S77" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="T77" t="n">
-        <v>2.9</v>
+        <v>2.19</v>
       </c>
       <c r="U77" t="n">
         <v>1.91</v>
@@ -11255,13 +11255,13 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>5.25</v>
+        <v>5.34</v>
       </c>
       <c r="K78" t="n">
-        <v>3.9</v>
+        <v>4.12</v>
       </c>
       <c r="L78" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -11282,10 +11282,10 @@
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="T78" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="U78" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2024-02-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -6160,10 +6160,10 @@
         <v>1.28</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AA41" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AB41" t="n">
         <v>1.71</v>
@@ -6299,10 +6299,10 @@
         <v>1.07</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AA42" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AB42" t="n">
         <v>1.31</v>
@@ -6438,10 +6438,10 @@
         <v>1.62</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AA43" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AB43" t="n">
         <v>1.4</v>
@@ -6716,10 +6716,10 @@
         <v>1.58</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AA45" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AB45" t="n">
         <v>1.28</v>
@@ -6855,10 +6855,10 @@
         <v>1.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AB46" t="n">
         <v>1.31</v>
@@ -6994,10 +6994,10 @@
         <v>1.17</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA47" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AB47" t="n">
         <v>1.47</v>
@@ -7133,10 +7133,10 @@
         <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AA48" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AB48" t="n">
         <v>1.14</v>
@@ -7272,10 +7272,10 @@
         <v>1.42</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AB49" t="n">
         <v>1.52</v>
@@ -7411,10 +7411,10 @@
         <v>1.29</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AA50" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AB50" t="n">
         <v>1.37</v>
@@ -7550,10 +7550,10 @@
         <v>1.7</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AA51" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AB51" t="n">
         <v>1.41</v>
@@ -7689,10 +7689,10 @@
         <v>1.01</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AA52" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AB52" t="n">
         <v>1.39</v>
@@ -7828,10 +7828,10 @@
         <v>2.65</v>
       </c>
       <c r="Z53" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AA53" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AB53" t="n">
         <v>1.48</v>
@@ -7967,10 +7967,10 @@
         <v>4.75</v>
       </c>
       <c r="Z54" t="n">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AB54" t="n">
         <v>1.85</v>
@@ -8106,10 +8106,10 @@
         <v>1.38</v>
       </c>
       <c r="Z55" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AA55" t="n">
         <v>1</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>0.78</v>
       </c>
       <c r="AB55" t="n">
         <v>1.57</v>
@@ -8245,10 +8245,10 @@
         <v>1.14</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AA56" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AB56" t="n">
         <v>1.27</v>
@@ -8384,7 +8384,7 @@
         <v>1.57</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AA57" t="n">
         <v>1.08</v>
@@ -8523,10 +8523,10 @@
         <v>2.58</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AB58" t="n">
         <v>1.81</v>
@@ -8662,10 +8662,10 @@
         <v>1.68</v>
       </c>
       <c r="Z59" t="n">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AA59" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AB59" t="n">
         <v>1.63</v>
@@ -8801,10 +8801,10 @@
         <v>2.55</v>
       </c>
       <c r="Z60" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AA60" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AB60" t="n">
         <v>1.69</v>
@@ -8870,7 +8870,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -8940,10 +8940,10 @@
         <v>1.18</v>
       </c>
       <c r="Z61" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AA61" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AB61" t="n">
         <v>1.61</v>
@@ -9082,7 +9082,7 @@
         <v>1</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AB62" t="n">
         <v>1.58</v>
@@ -9218,10 +9218,10 @@
         <v>4.2</v>
       </c>
       <c r="Z63" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AB63" t="n">
         <v>2.18</v>
@@ -9357,10 +9357,10 @@
         <v>1.3</v>
       </c>
       <c r="Z64" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AA64" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AB64" t="n">
         <v>1.26</v>
@@ -9496,10 +9496,10 @@
         <v>1.55</v>
       </c>
       <c r="Z65" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AA65" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AB65" t="n">
         <v>1.27</v>
@@ -9635,10 +9635,10 @@
         <v>1.85</v>
       </c>
       <c r="Z66" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AA66" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AB66" t="n">
         <v>1.69</v>
@@ -9774,10 +9774,10 @@
         <v>1.28</v>
       </c>
       <c r="Z67" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AA67" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AB67" t="n">
         <v>1.49</v>
@@ -9913,10 +9913,10 @@
         <v>1.31</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AA68" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AB68" t="n">
         <v>1.77</v>
@@ -10052,10 +10052,10 @@
         <v>1.57</v>
       </c>
       <c r="Z69" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AA69" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AB69" t="n">
         <v>1.9</v>
@@ -10194,7 +10194,7 @@
         <v>3</v>
       </c>
       <c r="AA70" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AB70" t="n">
         <v>1.59</v>
@@ -10330,10 +10330,10 @@
         <v>1.7</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AA71" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AB71" t="n">
         <v>1.84</v>
@@ -10469,10 +10469,10 @@
         <v>2.17</v>
       </c>
       <c r="Z72" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AB72" t="n">
         <v>1.82</v>
@@ -10608,10 +10608,10 @@
         <v>5.75</v>
       </c>
       <c r="Z73" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AA73" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AB73" t="n">
         <v>2.32</v>
@@ -10747,10 +10747,10 @@
         <v>1.9</v>
       </c>
       <c r="Z74" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AA74" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AB74" t="n">
         <v>1.43</v>
@@ -10886,10 +10886,10 @@
         <v>1.61</v>
       </c>
       <c r="Z75" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AA75" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AB75" t="n">
         <v>1.4</v>
@@ -11025,10 +11025,10 @@
         <v>1.7</v>
       </c>
       <c r="Z76" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AA76" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AB76" t="n">
         <v>1.35</v>

--- a/Jogos_do_Dia/2024-02-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11164,10 +11164,10 @@
         <v>4.2</v>
       </c>
       <c r="Z77" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AA77" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="AB77" t="n">
         <v>1.99</v>
@@ -11303,10 +11303,10 @@
         <v>0</v>
       </c>
       <c r="Z78" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AA78" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AB78" t="n">
         <v>1.36</v>
